--- a/input/data/standard_si_dap_template.xlsx
+++ b/input/data/standard_si_dap_template.xlsx
@@ -13400,7 +13400,7 @@
   <dimension ref="A1:G829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
